--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7066_Allow_empty_cell_in_DT_result.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7066_Allow_empty_cell_in_DT_result.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-7066\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C2CD7E-4DA7-49D4-8A90-69D3365B3FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9CCC45-37E5-4910-B42A-0E8A93CE961A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12110" yWindow="3940" windowWidth="18630" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
   <si>
     <t>C1</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Test dt4 dt4Test</t>
   </si>
   <si>
-    <t>calculationMode</t>
-  </si>
-  <si>
     <t>CRET1</t>
   </si>
   <si>
@@ -133,17 +130,19 @@
     <t>Test dt7 dt7Test</t>
   </si>
   <si>
-    <t>ALLOW_EMPTY_RESULT</t>
-  </si>
-  <si>
-    <t>AVOID_EMPTY_RESULT</t>
+    <t>resultCalculationMode</t>
+  </si>
+  <si>
+    <t>ALLOW_EMPTY</t>
+  </si>
+  <si>
+    <t>AVOID_EMPTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -272,7 +271,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -299,9 +298,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,10 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -723,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658BA545-AE13-4E21-80BF-6AA18182F7FA}">
   <dimension ref="A4:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -871,18 +870,18 @@
       <c r="J27" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>33</v>
@@ -892,83 +891,83 @@
       <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="24">
-        <v>3</v>
-      </c>
-      <c r="D37" s="33"/>
+      <c r="C37" s="25">
+        <v>3</v>
+      </c>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="25">
         <v>4</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>33</v>
@@ -978,10 +977,10 @@
       <c r="B45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="33"/>
+      <c r="D45" s="26"/>
       <c r="E45" t="s">
         <v>15</v>
       </c>
@@ -990,24 +989,24 @@
       <c r="B46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="26"/>
       <c r="E48" t="s">
         <v>17</v>
       </c>
@@ -1016,8 +1015,8 @@
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49" t="s">
         <v>19</v>
       </c>
@@ -1026,8 +1025,8 @@
       <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50">
         <v>8</v>
       </c>
@@ -1036,10 +1035,10 @@
       <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="24">
-        <v>3</v>
-      </c>
-      <c r="D51" s="33"/>
+      <c r="C51" s="25">
+        <v>3</v>
+      </c>
+      <c r="D51" s="26"/>
       <c r="E51">
         <v>6</v>
       </c>
@@ -1048,19 +1047,19 @@
       <c r="B52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="25">
         <v>4</v>
       </c>
-      <c r="D52" s="33"/>
+      <c r="D52" s="26"/>
       <c r="E52">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="27"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
@@ -1087,11 +1086,11 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -1102,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>34</v>
@@ -1116,10 +1115,10 @@
       <c r="B65" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="33"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="10" t="s">
         <v>15</v>
       </c>
@@ -1131,8 +1130,8 @@
       <c r="B66" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -1142,8 +1141,8 @@
       <c r="B67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -1153,10 +1152,10 @@
       <c r="B68" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="33"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="10" t="s">
         <v>17</v>
       </c>
@@ -1168,8 +1167,8 @@
       <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -1179,8 +1178,8 @@
       <c r="B70" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="10">
         <v>8</v>
       </c>
@@ -1192,10 +1191,10 @@
       <c r="B71" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="24">
-        <v>3</v>
-      </c>
-      <c r="D71" s="33"/>
+      <c r="C71" s="25">
+        <v>3</v>
+      </c>
+      <c r="D71" s="26"/>
       <c r="E71" s="10">
         <v>6</v>
       </c>
@@ -1207,10 +1206,10 @@
       <c r="B72" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="25">
         <v>4</v>
       </c>
-      <c r="D72" s="33"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="10">
         <v>7</v>
       </c>
@@ -1228,10 +1227,10 @@
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
@@ -1268,8 +1267,8 @@
       <c r="B77" s="10">
         <v>50</v>
       </c>
-      <c r="C77" s="10" t="n">
-        <v>3.0</v>
+      <c r="C77" s="10">
+        <v>3</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -1287,11 +1286,11 @@
       <c r="H78" s="10"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -1303,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>33</v>
@@ -1318,10 +1317,10 @@
       <c r="B82" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D82" s="33"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="10" t="s">
         <v>15</v>
       </c>
@@ -1334,8 +1333,8 @@
       <c r="B83" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -1346,8 +1345,8 @@
       <c r="B84" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -1358,10 +1357,10 @@
       <c r="B85" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="33"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="10" t="s">
         <v>17</v>
       </c>
@@ -1374,8 +1373,8 @@
       <c r="B86" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -1386,8 +1385,8 @@
       <c r="B87" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="10">
         <v>8</v>
       </c>
@@ -1400,10 +1399,10 @@
       <c r="B88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="24">
-        <v>3</v>
-      </c>
-      <c r="D88" s="33"/>
+      <c r="C88" s="25">
+        <v>3</v>
+      </c>
+      <c r="D88" s="26"/>
       <c r="E88" s="10">
         <v>6</v>
       </c>
@@ -1416,10 +1415,10 @@
       <c r="B89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="25">
         <v>4</v>
       </c>
-      <c r="D89" s="33"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="10">
         <v>7</v>
       </c>
@@ -1439,10 +1438,10 @@
       <c r="I90" s="10"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="36"/>
+      <c r="C91" s="27"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
@@ -1501,18 +1500,18 @@
       <c r="I95" s="10"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="B98" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>33</v>
@@ -1523,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="C100" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
@@ -1595,10 +1594,10 @@
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" s="26"/>
+      <c r="B109" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="24"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
@@ -1621,15 +1620,15 @@
         <v>50</v>
       </c>
       <c r="C112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
       <c r="E117" s="21"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
@@ -1637,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>33</v>
@@ -1648,72 +1647,72 @@
       <c r="B119" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="27"/>
+      <c r="C119" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="31"/>
       <c r="E119" s="21"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="28"/>
-      <c r="D120" s="29"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
       <c r="E120" s="21"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="29"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
       <c r="E121" s="21"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="30"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="21"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="28"/>
-      <c r="D123" s="29"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="33"/>
       <c r="E123" s="21"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="28"/>
-      <c r="D124" s="29"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="33"/>
       <c r="E124" s="21"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="31">
-        <v>3</v>
-      </c>
-      <c r="D125" s="31"/>
+      <c r="C125" s="35">
+        <v>3</v>
+      </c>
+      <c r="D125" s="35"/>
       <c r="E125" s="21"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="32">
+      <c r="C126" s="36">
         <v>4</v>
       </c>
-      <c r="D126" s="32"/>
+      <c r="D126" s="36"/>
       <c r="E126" s="21"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
@@ -1723,10 +1722,10 @@
       <c r="E127" s="21"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C128" s="26"/>
+      <c r="B128" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="24"/>
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
     </row>
@@ -1755,13 +1754,53 @@
         <v>50</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C88:D88"/>
@@ -1773,46 +1812,6 @@
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="B98:D98"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7066_Allow_empty_cell_in_DT_result.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7066_Allow_empty_cell_in_DT_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9CCC45-37E5-4910-B42A-0E8A93CE961A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9C7FDA-3098-4286-A2A3-049AB0AEDF11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,13 +130,13 @@
     <t>Test dt7 dt7Test</t>
   </si>
   <si>
-    <t>resultCalculationMode</t>
-  </si>
-  <si>
-    <t>ALLOW_EMPTY</t>
-  </si>
-  <si>
-    <t>AVOID_EMPTY</t>
+    <t>emptyResultProcessing</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -298,13 +298,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,6 +319,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658BA545-AE13-4E21-80BF-6AA18182F7FA}">
   <dimension ref="A4:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -870,11 +870,11 @@
       <c r="J27" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
@@ -891,76 +891,76 @@
       <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="25">
-        <v>3</v>
-      </c>
-      <c r="D37" s="26"/>
+      <c r="C37" s="24">
+        <v>3</v>
+      </c>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="24">
         <v>4</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -977,10 +977,10 @@
       <c r="B45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="33"/>
       <c r="E45" t="s">
         <v>15</v>
       </c>
@@ -989,24 +989,24 @@
       <c r="B46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="33"/>
       <c r="E48" t="s">
         <v>17</v>
       </c>
@@ -1015,8 +1015,8 @@
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" t="s">
         <v>19</v>
       </c>
@@ -1025,8 +1025,8 @@
       <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50">
         <v>8</v>
       </c>
@@ -1035,10 +1035,10 @@
       <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="25">
-        <v>3</v>
-      </c>
-      <c r="D51" s="26"/>
+      <c r="C51" s="24">
+        <v>3</v>
+      </c>
+      <c r="D51" s="33"/>
       <c r="E51">
         <v>6</v>
       </c>
@@ -1047,19 +1047,19 @@
       <c r="B52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="24">
         <v>4</v>
       </c>
-      <c r="D52" s="26"/>
+      <c r="D52" s="33"/>
       <c r="E52">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="36"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
@@ -1086,11 +1086,11 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -1115,10 +1115,10 @@
       <c r="B65" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="26"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="10" t="s">
         <v>15</v>
       </c>
@@ -1130,8 +1130,8 @@
       <c r="B66" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -1141,8 +1141,8 @@
       <c r="B67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -1152,10 +1152,10 @@
       <c r="B68" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="26"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="10" t="s">
         <v>17</v>
       </c>
@@ -1167,8 +1167,8 @@
       <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -1178,8 +1178,8 @@
       <c r="B70" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="10">
         <v>8</v>
       </c>
@@ -1191,10 +1191,10 @@
       <c r="B71" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="25">
-        <v>3</v>
-      </c>
-      <c r="D71" s="26"/>
+      <c r="C71" s="24">
+        <v>3</v>
+      </c>
+      <c r="D71" s="33"/>
       <c r="E71" s="10">
         <v>6</v>
       </c>
@@ -1206,10 +1206,10 @@
       <c r="B72" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="25">
+      <c r="C72" s="24">
         <v>4</v>
       </c>
-      <c r="D72" s="26"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="10">
         <v>7</v>
       </c>
@@ -1227,10 +1227,10 @@
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="27"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
@@ -1286,11 +1286,11 @@
       <c r="H78" s="10"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -1317,10 +1317,10 @@
       <c r="B82" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D82" s="26"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="10" t="s">
         <v>15</v>
       </c>
@@ -1333,8 +1333,8 @@
       <c r="B83" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -1345,8 +1345,8 @@
       <c r="B84" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -1357,10 +1357,10 @@
       <c r="B85" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="26"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="10" t="s">
         <v>17</v>
       </c>
@@ -1373,8 +1373,8 @@
       <c r="B86" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -1385,8 +1385,8 @@
       <c r="B87" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="10">
         <v>8</v>
       </c>
@@ -1399,10 +1399,10 @@
       <c r="B88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="25">
-        <v>3</v>
-      </c>
-      <c r="D88" s="26"/>
+      <c r="C88" s="24">
+        <v>3</v>
+      </c>
+      <c r="D88" s="33"/>
       <c r="E88" s="10">
         <v>6</v>
       </c>
@@ -1415,10 +1415,10 @@
       <c r="B89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="25">
+      <c r="C89" s="24">
         <v>4</v>
       </c>
-      <c r="D89" s="26"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="10">
         <v>7</v>
       </c>
@@ -1438,10 +1438,10 @@
       <c r="I90" s="10"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="27"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
@@ -1500,11 +1500,11 @@
       <c r="I95" s="10"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
@@ -1594,10 +1594,10 @@
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C109" s="24"/>
+      <c r="C109" s="26"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
@@ -1624,11 +1624,11 @@
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="21"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
@@ -1647,72 +1647,72 @@
       <c r="B119" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D119" s="31"/>
+      <c r="D119" s="27"/>
       <c r="E119" s="21"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="29"/>
       <c r="E120" s="21"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
       <c r="E121" s="21"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="34"/>
+      <c r="D122" s="30"/>
       <c r="E122" s="21"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="32"/>
-      <c r="D123" s="33"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="29"/>
       <c r="E123" s="21"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="32"/>
-      <c r="D124" s="33"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="29"/>
       <c r="E124" s="21"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="35">
-        <v>3</v>
-      </c>
-      <c r="D125" s="35"/>
+      <c r="C125" s="31">
+        <v>3</v>
+      </c>
+      <c r="D125" s="31"/>
       <c r="E125" s="21"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="36">
+      <c r="C126" s="32">
         <v>4</v>
       </c>
-      <c r="D126" s="36"/>
+      <c r="D126" s="32"/>
       <c r="E126" s="21"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
@@ -1722,10 +1722,10 @@
       <c r="E127" s="21"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="24"/>
+      <c r="C128" s="26"/>
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
     </row>
@@ -1761,46 +1761,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B80:D80"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C88:D88"/>
@@ -1812,6 +1772,46 @@
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="B98:D98"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
